--- a/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/meddra-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/meddra-sct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joice\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54420D94-C457-40F7-A0F2-7324A58CBC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0DF5CE-CCE4-3F41-B5C4-4729350650A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equivalências" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -446,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -476,26 +475,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -507,6 +498,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,7 +513,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,7 +529,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Opções"/>
@@ -813,12 +810,12 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -848,57 +845,57 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="31.54296875" customWidth="1"/>
-    <col min="7" max="7" width="24.81640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="27.54296875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="19.08984375" style="22" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="14" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -926,7 +923,7 @@
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -935,1059 +932,1023 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="12">
         <v>10002198</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="12">
         <v>39579001</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="19"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="14"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="12">
         <v>10002424</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="12">
         <v>41291007</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="19"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="14"/>
       <c r="L5" s="3"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="12">
         <v>10003246</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="D6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="12">
         <v>3723001</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="19"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="14"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="12">
         <v>10003553</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="D7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="12">
         <v>195967001</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="19"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="14"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="12">
         <v>10003639</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="D8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="12">
         <v>24079001</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="19"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="14"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="12">
         <v>10006482</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="12">
         <v>4386001</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="19"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="14"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="12">
         <v>10012441</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="12">
         <v>271759003</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="19"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="14"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="12">
         <v>10007617</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="12">
         <v>410430005</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="19"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="14"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="12">
         <v>10010741</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="12">
         <v>9826008</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="19"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="14"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="12">
         <v>10012442</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="D13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="12">
         <v>40275004</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="19"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="14"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="12">
         <v>10011224</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="D14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="12">
         <v>49727002</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="19"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="14"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="12">
         <v>10012735</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="D15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="12">
         <v>62315008</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="19"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="14"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="13">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="12">
         <v>10073508</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="12">
         <v>702809001</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="19"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="14"/>
       <c r="L16" s="3"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="12">
         <v>10013968</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="12">
         <v>267036007</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="19"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="14"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="12">
         <v>10014184</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="D18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="12">
         <v>43116000</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="19"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="14"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="12">
         <v>10023845</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="D19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="12">
         <v>51599000</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="19"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="14"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="12">
         <v>10015218</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="12">
         <v>36715001</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="19"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="14"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="13">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="12">
         <v>10028116</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="D21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="12">
         <v>95361005</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="19"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="14"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="12">
         <v>10037087</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="D22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="12">
         <v>418290006</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="19"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="14"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="12">
         <v>10044223</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="D23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="12">
         <v>768962006</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="19"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="14"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="12">
         <v>10037868</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="D24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="12">
         <v>247471006</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="19"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="14"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="12">
         <v>10029117</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="D25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="12">
         <v>52845002</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="19"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="14"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="12">
         <v>10034972</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="12">
         <v>115664001</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19" t="s">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="21"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="12">
         <v>10039083</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="D27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="12">
         <v>70076002</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="19"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="14"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="12">
         <v>10042033</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="13">
+      <c r="D28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="12">
         <v>73442001</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="19"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="14"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="12">
         <v>10047115</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="13">
+      <c r="D29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="12">
         <v>31996006</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="19"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="14"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="12">
         <v>10047700</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="13">
+      <c r="D30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="12">
         <v>422400008</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="19"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="14"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="12">
         <v>10046735</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="D31" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="12">
         <v>247472004</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="19"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="14"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="19"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="3"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="19"/>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="19"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L40" s="3"/>
       <c r="M40" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L42" s="3"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L45" s="3"/>
       <c r="M45" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L55" s="4"/>
     </row>
-    <row r="65" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:14" x14ac:dyDescent="0.2">
       <c r="M65" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E73" s="10"/>
       <c r="M73" s="9" t="s">
         <v>17</v>
@@ -1996,12 +1957,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:14" x14ac:dyDescent="0.2">
       <c r="M79" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M85" s="6" t="s">
         <v>19</v>
       </c>
@@ -2032,7 +1993,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{187D5EB8-B031-44E0-827D-4C2EF4602A1E}">
           <x14:formula1>
-            <xm:f>'\Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I3</xm:sqref>
         </x14:dataValidation>
